--- a/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/科技配置_science.xlsx
+++ b/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/科技配置_science.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">science!$C$2:$I$1919</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -43,350 +43,321 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>名称</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_lv</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>science_lv</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">提升百分比
+</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>addition</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>可升级等级
+（玩家等级）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币科技一</t>
+  </si>
+  <si>
+    <t>金币科技二</t>
+  </si>
+  <si>
+    <t>金币科技三</t>
+  </si>
+  <si>
+    <t>金币科技四</t>
+  </si>
+  <si>
+    <t>金币科技五</t>
+  </si>
+  <si>
+    <t>金币科技六</t>
+  </si>
+  <si>
+    <t>金币科技七</t>
+  </si>
+  <si>
+    <t>金币科技八</t>
+  </si>
+  <si>
+    <t>金币科技九</t>
+  </si>
+  <si>
+    <t>金币科技十</t>
+  </si>
+  <si>
+    <t>木材科技一</t>
+  </si>
+  <si>
+    <t>木材科技二</t>
+  </si>
+  <si>
+    <t>木材科技三</t>
+  </si>
+  <si>
+    <t>木材科技四</t>
+  </si>
+  <si>
+    <t>木材科技五</t>
+  </si>
+  <si>
+    <t>矿石科技一</t>
+  </si>
+  <si>
+    <t>经验科技一</t>
+  </si>
+  <si>
+    <t>事件科技一</t>
+  </si>
+  <si>
+    <t>合体科技一</t>
+  </si>
+  <si>
+    <t>矿石科技二</t>
+  </si>
+  <si>
+    <t>经验科技二</t>
+  </si>
+  <si>
+    <t>事件科技二</t>
+  </si>
+  <si>
+    <t>合体科技二</t>
+  </si>
+  <si>
+    <t>矿石科技三</t>
+  </si>
+  <si>
+    <t>经验科技三</t>
+  </si>
+  <si>
+    <t>事件科技三</t>
+  </si>
+  <si>
+    <t>合体科技三</t>
+  </si>
+  <si>
+    <t>矿石科技四</t>
+  </si>
+  <si>
+    <t>经验科技四</t>
+  </si>
+  <si>
+    <t>事件科技四</t>
+  </si>
+  <si>
+    <t>合体科技四</t>
+  </si>
+  <si>
+    <t>矿石科技五</t>
+  </si>
+  <si>
+    <t>经验科技五</t>
+  </si>
+  <si>
+    <t>事件科技五</t>
+  </si>
+  <si>
+    <t>合体科技五</t>
+  </si>
+  <si>
+    <t>木材科技六</t>
+  </si>
+  <si>
+    <t>矿石科技六</t>
+  </si>
+  <si>
+    <t>经验科技六</t>
+  </si>
+  <si>
+    <t>事件科技六</t>
+  </si>
+  <si>
+    <t>合体科技六</t>
+  </si>
+  <si>
+    <t>木材科技七</t>
+  </si>
+  <si>
+    <t>矿石科技七</t>
+  </si>
+  <si>
+    <t>经验科技七</t>
+  </si>
+  <si>
+    <t>事件科技七</t>
+  </si>
+  <si>
+    <t>合体科技七</t>
+  </si>
+  <si>
+    <t>木材科技八</t>
+  </si>
+  <si>
+    <t>矿石科技八</t>
+  </si>
+  <si>
+    <t>经验科技八</t>
+  </si>
+  <si>
+    <t>事件科技八</t>
+  </si>
+  <si>
+    <t>合体科技八</t>
+  </si>
+  <si>
+    <t>木材科技九</t>
+  </si>
+  <si>
+    <t>矿石科技九</t>
+  </si>
+  <si>
+    <t>经验科技九</t>
+  </si>
+  <si>
+    <t>事件科技九</t>
+  </si>
+  <si>
+    <t>合体科技九</t>
+  </si>
+  <si>
+    <t>木材科技十</t>
+  </si>
+  <si>
+    <t>矿石科技十</t>
+  </si>
+  <si>
+    <t>经验科技十</t>
+  </si>
+  <si>
+    <t>事件科技十</t>
+  </si>
+  <si>
+    <t>合体科技十</t>
+  </si>
+  <si>
+    <t>next_lv</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一等级
+不可升级填0</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>升级消耗资源
-1-体力
-2-金币
-3-木材
-4-矿石
-5-圣水
+70001-体力
+70002-金币
+70003-木材
+70004-矿石
+70005-圣水
+70006-钻石
 以“|”号间隔
 （1_数量|2_数量|3_数量）</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>名称</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>player_lv</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>science_lv</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">提升百分比
-</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_10000|3_10000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_300000|3_300000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_500000|3_500000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_1000000|3_1000000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_2000000|3_2000000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_5000000|3_5000000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_8000000|3_8000000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_10000000|3_10000000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_10000|4_10000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_50000|4_50000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_100000|4_100000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_300000|4_300000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_500000|4_500000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_1000000|4_1000000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_2000000|4_2000000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_5000000|4_5000000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_8000000|4_8000000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_10000000|4_10000000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_10000|4_10000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_50000|4_50000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_100000|4_100000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_300000|4_300000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_500000|4_500000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_1000000|4_1000000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_2000000|4_2000000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_5000000|4_5000000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_8000000|4_8000000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_10000000|4_10000000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_50000|3_50000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_100000|3_100000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>addition</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>可升级等级
-（玩家等级）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币科技一</t>
-  </si>
-  <si>
-    <t>金币科技二</t>
-  </si>
-  <si>
-    <t>金币科技三</t>
-  </si>
-  <si>
-    <t>金币科技四</t>
-  </si>
-  <si>
-    <t>金币科技五</t>
-  </si>
-  <si>
-    <t>金币科技六</t>
-  </si>
-  <si>
-    <t>金币科技七</t>
-  </si>
-  <si>
-    <t>金币科技八</t>
-  </si>
-  <si>
-    <t>金币科技九</t>
-  </si>
-  <si>
-    <t>金币科技十</t>
-  </si>
-  <si>
-    <t>木材科技一</t>
-  </si>
-  <si>
-    <t>木材科技二</t>
-  </si>
-  <si>
-    <t>木材科技三</t>
-  </si>
-  <si>
-    <t>木材科技四</t>
-  </si>
-  <si>
-    <t>木材科技五</t>
-  </si>
-  <si>
-    <t>矿石科技一</t>
-  </si>
-  <si>
-    <t>经验科技一</t>
-  </si>
-  <si>
-    <t>事件科技一</t>
-  </si>
-  <si>
-    <t>合体科技一</t>
-  </si>
-  <si>
-    <t>矿石科技二</t>
-  </si>
-  <si>
-    <t>经验科技二</t>
-  </si>
-  <si>
-    <t>事件科技二</t>
-  </si>
-  <si>
-    <t>合体科技二</t>
-  </si>
-  <si>
-    <t>矿石科技三</t>
-  </si>
-  <si>
-    <t>经验科技三</t>
-  </si>
-  <si>
-    <t>事件科技三</t>
-  </si>
-  <si>
-    <t>合体科技三</t>
-  </si>
-  <si>
-    <t>矿石科技四</t>
-  </si>
-  <si>
-    <t>经验科技四</t>
-  </si>
-  <si>
-    <t>事件科技四</t>
-  </si>
-  <si>
-    <t>合体科技四</t>
-  </si>
-  <si>
-    <t>矿石科技五</t>
-  </si>
-  <si>
-    <t>经验科技五</t>
-  </si>
-  <si>
-    <t>事件科技五</t>
-  </si>
-  <si>
-    <t>合体科技五</t>
-  </si>
-  <si>
-    <t>木材科技六</t>
-  </si>
-  <si>
-    <t>矿石科技六</t>
-  </si>
-  <si>
-    <t>经验科技六</t>
-  </si>
-  <si>
-    <t>事件科技六</t>
-  </si>
-  <si>
-    <t>合体科技六</t>
-  </si>
-  <si>
-    <t>木材科技七</t>
-  </si>
-  <si>
-    <t>矿石科技七</t>
-  </si>
-  <si>
-    <t>经验科技七</t>
-  </si>
-  <si>
-    <t>事件科技七</t>
-  </si>
-  <si>
-    <t>合体科技七</t>
-  </si>
-  <si>
-    <t>木材科技八</t>
-  </si>
-  <si>
-    <t>矿石科技八</t>
-  </si>
-  <si>
-    <t>经验科技八</t>
-  </si>
-  <si>
-    <t>事件科技八</t>
-  </si>
-  <si>
-    <t>合体科技八</t>
-  </si>
-  <si>
-    <t>木材科技九</t>
-  </si>
-  <si>
-    <t>矿石科技九</t>
-  </si>
-  <si>
-    <t>经验科技九</t>
-  </si>
-  <si>
-    <t>事件科技九</t>
-  </si>
-  <si>
-    <t>合体科技九</t>
-  </si>
-  <si>
-    <t>木材科技十</t>
-  </si>
-  <si>
-    <t>矿石科技十</t>
-  </si>
-  <si>
-    <t>经验科技十</t>
-  </si>
-  <si>
-    <t>事件科技十</t>
-  </si>
-  <si>
-    <t>合体科技十</t>
-  </si>
-  <si>
-    <t>next_lv</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一等级
-不可升级填0</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <t>70002_10000|70003_10000</t>
+  </si>
+  <si>
+    <t>70002_50000|70003_50000</t>
+  </si>
+  <si>
+    <t>70002_100000|70003_100000</t>
+  </si>
+  <si>
+    <t>70002_300000|70003_300000</t>
+  </si>
+  <si>
+    <t>70002_500000|70003_500000</t>
+  </si>
+  <si>
+    <t>70002_1000000|70003_1000000</t>
+  </si>
+  <si>
+    <t>70002_2000000|70003_2000000</t>
+  </si>
+  <si>
+    <t>70002_5000000|70003_5000000</t>
+  </si>
+  <si>
+    <t>70002_8000000|70003_8000000</t>
+  </si>
+  <si>
+    <t>70002_10000000|70003_10000000</t>
+  </si>
+  <si>
+    <t>70003_10000|70004_10000</t>
+  </si>
+  <si>
+    <t>70003_50000|70004_50000</t>
+  </si>
+  <si>
+    <t>70003_100000|70004_100000</t>
+  </si>
+  <si>
+    <t>70003_300000|70004_300000</t>
+  </si>
+  <si>
+    <t>70003_500000|70004_500000</t>
+  </si>
+  <si>
+    <t>70003_1000000|70004_1000000</t>
+  </si>
+  <si>
+    <t>70003_2000000|70004_2000000</t>
+  </si>
+  <si>
+    <t>70003_5000000|70004_5000000</t>
+  </si>
+  <si>
+    <t>70003_8000000|70004_8000000</t>
+  </si>
+  <si>
+    <t>70003_10000000|70004_10000000</t>
+  </si>
+  <si>
+    <t>70002_10000|70004_10000</t>
+  </si>
+  <si>
+    <t>70002_50000|70004_50000</t>
+  </si>
+  <si>
+    <t>70002_100000|70004_100000</t>
+  </si>
+  <si>
+    <t>70002_300000|70004_300000</t>
+  </si>
+  <si>
+    <t>70002_500000|70004_500000</t>
+  </si>
+  <si>
+    <t>70002_1000000|70004_1000000</t>
+  </si>
+  <si>
+    <t>70002_2000000|70004_2000000</t>
+  </si>
+  <si>
+    <t>70002_5000000|70004_5000000</t>
+  </si>
+  <si>
+    <t>70002_8000000|70004_8000000</t>
+  </si>
+  <si>
+    <t>70002_10000000|70004_10000000</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1063,7 @@
   <dimension ref="A1:I1940"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1111,27 +1082,27 @@
     <row r="1" spans="1:9" s="7" customFormat="1">
       <c r="H1" s="17"/>
     </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" ht="128.25" customHeight="1">
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="146.25" customHeight="1">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="15"/>
@@ -1144,16 +1115,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>4</v>
@@ -1165,7 +1136,7 @@
         <v>1001</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C4" s="30">
         <v>1</v>
@@ -1180,7 +1151,7 @@
         <v>0.05</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="H4" s="31"/>
     </row>
@@ -1189,7 +1160,7 @@
         <v>1002</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C5" s="30">
         <v>2</v>
@@ -1204,7 +1175,7 @@
         <v>0.1</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="H5" s="31"/>
     </row>
@@ -1213,7 +1184,7 @@
         <v>1003</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C6" s="30">
         <v>3</v>
@@ -1228,7 +1199,7 @@
         <v>0.15</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="H6" s="31"/>
     </row>
@@ -1237,7 +1208,7 @@
         <v>1004</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C7" s="30">
         <v>4</v>
@@ -1252,7 +1223,7 @@
         <v>0.2</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="H7" s="33"/>
     </row>
@@ -1261,7 +1232,7 @@
         <v>1005</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C8" s="30">
         <v>5</v>
@@ -1276,7 +1247,7 @@
         <v>0.25</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="H8" s="33"/>
     </row>
@@ -1285,7 +1256,7 @@
         <v>1006</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C9" s="30">
         <v>6</v>
@@ -1300,7 +1271,7 @@
         <v>0.3</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="H9" s="33"/>
     </row>
@@ -1309,7 +1280,7 @@
         <v>1007</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C10" s="30">
         <v>7</v>
@@ -1324,7 +1295,7 @@
         <v>0.35</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="H10" s="33"/>
     </row>
@@ -1333,7 +1304,7 @@
         <v>1008</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="C11" s="30">
         <v>8</v>
@@ -1348,7 +1319,7 @@
         <v>0.4</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="H11" s="33"/>
     </row>
@@ -1357,7 +1328,7 @@
         <v>1009</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C12" s="30">
         <v>9</v>
@@ -1372,7 +1343,7 @@
         <v>0.45</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="H12" s="33"/>
     </row>
@@ -1381,7 +1352,7 @@
         <v>1010</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C13" s="30">
         <v>10</v>
@@ -1396,7 +1367,7 @@
         <v>0.5</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="H13" s="33"/>
     </row>
@@ -1405,7 +1376,7 @@
         <v>2001</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="C14" s="36">
         <v>1</v>
@@ -1420,7 +1391,7 @@
         <v>0.05</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="H14" s="38"/>
     </row>
@@ -1429,7 +1400,7 @@
         <v>2002</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="C15" s="36">
         <v>2</v>
@@ -1444,7 +1415,7 @@
         <v>0.1</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="H15" s="38"/>
     </row>
@@ -1453,7 +1424,7 @@
         <v>2003</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="C16" s="36">
         <v>3</v>
@@ -1468,7 +1439,7 @@
         <v>0.15</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="H16" s="38"/>
     </row>
@@ -1477,7 +1448,7 @@
         <v>2004</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C17" s="36">
         <v>4</v>
@@ -1492,7 +1463,7 @@
         <v>0.2</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="H17" s="38"/>
     </row>
@@ -1501,7 +1472,7 @@
         <v>2005</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="C18" s="36">
         <v>5</v>
@@ -1516,7 +1487,7 @@
         <v>0.25</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="H18" s="38"/>
     </row>
@@ -1525,7 +1496,7 @@
         <v>2006</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C19" s="36">
         <v>6</v>
@@ -1540,7 +1511,7 @@
         <v>0.3</v>
       </c>
       <c r="G19" s="37" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="H19" s="38"/>
     </row>
@@ -1549,7 +1520,7 @@
         <v>2007</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C20" s="36">
         <v>7</v>
@@ -1564,7 +1535,7 @@
         <v>0.35</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="H20" s="38"/>
     </row>
@@ -1573,7 +1544,7 @@
         <v>2008</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C21" s="36">
         <v>8</v>
@@ -1588,7 +1559,7 @@
         <v>0.4</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="H21" s="38"/>
     </row>
@@ -1597,7 +1568,7 @@
         <v>2009</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C22" s="36">
         <v>9</v>
@@ -1612,7 +1583,7 @@
         <v>0.45</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="H22" s="38"/>
     </row>
@@ -1621,7 +1592,7 @@
         <v>2010</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="C23" s="36">
         <v>10</v>
@@ -1636,7 +1607,7 @@
         <v>0.5</v>
       </c>
       <c r="G23" s="37" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H23" s="38"/>
     </row>
@@ -1645,7 +1616,7 @@
         <v>3001</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="C24" s="30">
         <v>1</v>
@@ -1660,7 +1631,7 @@
         <v>0.05</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="H24" s="33"/>
     </row>
@@ -1669,7 +1640,7 @@
         <v>3002</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C25" s="29">
         <v>2</v>
@@ -1684,7 +1655,7 @@
         <v>0.1</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="H25" s="33"/>
     </row>
@@ -1693,7 +1664,7 @@
         <v>3003</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="C26" s="29">
         <v>3</v>
@@ -1708,7 +1679,7 @@
         <v>0.15</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="H26" s="33"/>
     </row>
@@ -1717,7 +1688,7 @@
         <v>3004</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="C27" s="29">
         <v>4</v>
@@ -1732,7 +1703,7 @@
         <v>0.2</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="H27" s="33"/>
     </row>
@@ -1741,7 +1712,7 @@
         <v>3005</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C28" s="29">
         <v>5</v>
@@ -1756,7 +1727,7 @@
         <v>0.25</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="H28" s="33"/>
     </row>
@@ -1765,7 +1736,7 @@
         <v>3006</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="C29" s="29">
         <v>6</v>
@@ -1780,7 +1751,7 @@
         <v>0.3</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="H29" s="33"/>
     </row>
@@ -1789,7 +1760,7 @@
         <v>3007</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="C30" s="29">
         <v>7</v>
@@ -1804,7 +1775,7 @@
         <v>0.35</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="H30" s="33"/>
     </row>
@@ -1813,7 +1784,7 @@
         <v>3008</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C31" s="29">
         <v>8</v>
@@ -1828,7 +1799,7 @@
         <v>0.4</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="H31" s="33"/>
     </row>
@@ -1837,7 +1808,7 @@
         <v>3009</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="C32" s="29">
         <v>9</v>
@@ -1852,7 +1823,7 @@
         <v>0.45</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="H32" s="33"/>
     </row>
@@ -1861,7 +1832,7 @@
         <v>3010</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C33" s="29">
         <v>10</v>
@@ -1876,7 +1847,7 @@
         <v>0.5</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="H33" s="33"/>
     </row>
@@ -1885,7 +1856,7 @@
         <v>4001</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="C34" s="35">
         <v>1</v>
@@ -1900,7 +1871,7 @@
         <v>0.05</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="H34" s="38"/>
     </row>
@@ -1909,7 +1880,7 @@
         <v>4002</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="C35" s="35">
         <v>2</v>
@@ -1924,7 +1895,7 @@
         <v>0.1</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="H35" s="38"/>
     </row>
@@ -1933,7 +1904,7 @@
         <v>4003</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="C36" s="35">
         <v>3</v>
@@ -1948,7 +1919,7 @@
         <v>0.15</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="H36" s="38"/>
     </row>
@@ -1957,7 +1928,7 @@
         <v>4004</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="C37" s="35">
         <v>4</v>
@@ -1972,7 +1943,7 @@
         <v>0.2</v>
       </c>
       <c r="G37" s="37" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="H37" s="38"/>
     </row>
@@ -1981,7 +1952,7 @@
         <v>4005</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="C38" s="35">
         <v>5</v>
@@ -1996,7 +1967,7 @@
         <v>0.25</v>
       </c>
       <c r="G38" s="37" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="H38" s="38"/>
     </row>
@@ -2005,7 +1976,7 @@
         <v>4006</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="C39" s="35">
         <v>6</v>
@@ -2020,7 +1991,7 @@
         <v>0.3</v>
       </c>
       <c r="G39" s="37" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="H39" s="38"/>
     </row>
@@ -2029,7 +2000,7 @@
         <v>4007</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C40" s="35">
         <v>7</v>
@@ -2044,7 +2015,7 @@
         <v>0.35</v>
       </c>
       <c r="G40" s="37" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="H40" s="38"/>
     </row>
@@ -2053,7 +2024,7 @@
         <v>4008</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C41" s="35">
         <v>8</v>
@@ -2068,7 +2039,7 @@
         <v>0.4</v>
       </c>
       <c r="G41" s="37" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="H41" s="38"/>
     </row>
@@ -2077,7 +2048,7 @@
         <v>4009</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="C42" s="35">
         <v>9</v>
@@ -2092,7 +2063,7 @@
         <v>0.45</v>
       </c>
       <c r="G42" s="37" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="H42" s="38"/>
     </row>
@@ -2101,7 +2072,7 @@
         <v>4010</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="C43" s="35">
         <v>10</v>
@@ -2116,7 +2087,7 @@
         <v>0.5</v>
       </c>
       <c r="G43" s="37" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H43" s="38"/>
     </row>
@@ -2125,7 +2096,7 @@
         <v>5001</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C44" s="29">
         <v>1</v>
@@ -2140,7 +2111,7 @@
         <v>0.05</v>
       </c>
       <c r="G44" s="30" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="H44" s="33"/>
     </row>
@@ -2149,7 +2120,7 @@
         <v>5002</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C45" s="29">
         <v>2</v>
@@ -2164,7 +2135,7 @@
         <v>0.1</v>
       </c>
       <c r="G45" s="30" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="H45" s="33"/>
     </row>
@@ -2173,7 +2144,7 @@
         <v>5003</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="C46" s="29">
         <v>3</v>
@@ -2188,7 +2159,7 @@
         <v>0.15</v>
       </c>
       <c r="G46" s="30" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="H46" s="33"/>
     </row>
@@ -2197,7 +2168,7 @@
         <v>5004</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C47" s="29">
         <v>4</v>
@@ -2212,7 +2183,7 @@
         <v>0.2</v>
       </c>
       <c r="G47" s="32" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="H47" s="33"/>
     </row>
@@ -2221,7 +2192,7 @@
         <v>5005</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="C48" s="29">
         <v>5</v>
@@ -2236,7 +2207,7 @@
         <v>0.25</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="H48" s="33"/>
     </row>
@@ -2245,7 +2216,7 @@
         <v>5006</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C49" s="29">
         <v>6</v>
@@ -2260,7 +2231,7 @@
         <v>0.3</v>
       </c>
       <c r="G49" s="32" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="H49" s="33"/>
     </row>
@@ -2269,7 +2240,7 @@
         <v>5007</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="C50" s="29">
         <v>7</v>
@@ -2284,7 +2255,7 @@
         <v>0.35</v>
       </c>
       <c r="G50" s="32" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="H50" s="33"/>
     </row>
@@ -2293,7 +2264,7 @@
         <v>5008</v>
       </c>
       <c r="B51" s="34" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="C51" s="29">
         <v>8</v>
@@ -2308,7 +2279,7 @@
         <v>0.4</v>
       </c>
       <c r="G51" s="32" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="H51" s="33"/>
     </row>
@@ -2317,7 +2288,7 @@
         <v>5009</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="C52" s="29">
         <v>9</v>
@@ -2332,7 +2303,7 @@
         <v>0.45</v>
       </c>
       <c r="G52" s="32" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="H52" s="33"/>
     </row>
@@ -2341,7 +2312,7 @@
         <v>5010</v>
       </c>
       <c r="B53" s="34" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C53" s="29">
         <v>10</v>
@@ -2356,7 +2327,7 @@
         <v>0.5</v>
       </c>
       <c r="G53" s="32" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="H53" s="33"/>
     </row>
@@ -2365,7 +2336,7 @@
         <v>6001</v>
       </c>
       <c r="B54" s="39" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C54" s="35">
         <v>1</v>
@@ -2380,7 +2351,7 @@
         <v>0.05</v>
       </c>
       <c r="G54" s="36" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="H54" s="38"/>
     </row>
@@ -2389,7 +2360,7 @@
         <v>6002</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C55" s="35">
         <v>2</v>
@@ -2404,7 +2375,7 @@
         <v>0.1</v>
       </c>
       <c r="G55" s="36" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="H55" s="38"/>
     </row>
@@ -2413,7 +2384,7 @@
         <v>6003</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C56" s="35">
         <v>3</v>
@@ -2428,7 +2399,7 @@
         <v>0.15</v>
       </c>
       <c r="G56" s="36" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="H56" s="38"/>
     </row>
@@ -2437,7 +2408,7 @@
         <v>6004</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="C57" s="35">
         <v>4</v>
@@ -2452,7 +2423,7 @@
         <v>0.2</v>
       </c>
       <c r="G57" s="37" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="H57" s="38"/>
     </row>
@@ -2461,7 +2432,7 @@
         <v>6005</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="C58" s="35">
         <v>5</v>
@@ -2476,7 +2447,7 @@
         <v>0.25</v>
       </c>
       <c r="G58" s="37" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="H58" s="38"/>
     </row>
@@ -2485,7 +2456,7 @@
         <v>6006</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C59" s="35">
         <v>6</v>
@@ -2500,7 +2471,7 @@
         <v>0.3</v>
       </c>
       <c r="G59" s="37" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="H59" s="38"/>
     </row>
@@ -2509,7 +2480,7 @@
         <v>6007</v>
       </c>
       <c r="B60" s="39" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C60" s="35">
         <v>7</v>
@@ -2524,7 +2495,7 @@
         <v>0.35</v>
       </c>
       <c r="G60" s="37" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="H60" s="38"/>
     </row>
@@ -2533,7 +2504,7 @@
         <v>6008</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="C61" s="35">
         <v>8</v>
@@ -2548,7 +2519,7 @@
         <v>0.4</v>
       </c>
       <c r="G61" s="37" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="H61" s="38"/>
     </row>
@@ -2557,7 +2528,7 @@
         <v>6009</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C62" s="35">
         <v>9</v>
@@ -2572,7 +2543,7 @@
         <v>0.45</v>
       </c>
       <c r="G62" s="37" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="H62" s="38"/>
     </row>
@@ -2581,7 +2552,7 @@
         <v>6010</v>
       </c>
       <c r="B63" s="39" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="C63" s="35">
         <v>10</v>
@@ -2596,7 +2567,7 @@
         <v>0.5</v>
       </c>
       <c r="G63" s="37" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="H63" s="38"/>
     </row>

--- a/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/科技配置_science.xlsx
+++ b/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/科技配置_science.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="105">
   <si>
     <t>id</t>
   </si>
@@ -358,6 +358,10 @@
   </si>
   <si>
     <t>70002_10000000|70004_10000000</t>
+  </si>
+  <si>
+    <t>70003_10000|70004_10000</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1062,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1940"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1074,7 +1078,7 @@
     <col min="4" max="4" width="12.875" style="13" customWidth="1"/>
     <col min="5" max="5" width="14.75" style="13" customWidth="1"/>
     <col min="6" max="6" width="20.125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="41.625" style="13" customWidth="1"/>
     <col min="8" max="8" width="16.375" style="14" customWidth="1"/>
     <col min="9" max="16384" width="9" style="13"/>
   </cols>
@@ -1151,7 +1155,7 @@
         <v>0.05</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="H4" s="31"/>
     </row>
@@ -1347,7 +1351,7 @@
       </c>
       <c r="H12" s="33"/>
     </row>
-    <row r="13" spans="1:9" s="34" customFormat="1">
+    <row r="13" spans="1:9" s="34" customFormat="1" ht="27">
       <c r="A13" s="29">
         <v>1010</v>
       </c>
@@ -1587,7 +1591,7 @@
       </c>
       <c r="H22" s="38"/>
     </row>
-    <row r="23" spans="1:8" s="39" customFormat="1">
+    <row r="23" spans="1:8" s="39" customFormat="1" ht="27">
       <c r="A23" s="35">
         <v>2010</v>
       </c>
@@ -1827,7 +1831,7 @@
       </c>
       <c r="H32" s="33"/>
     </row>
-    <row r="33" spans="1:8" s="34" customFormat="1">
+    <row r="33" spans="1:8" s="34" customFormat="1" ht="27">
       <c r="A33" s="29">
         <v>3010</v>
       </c>
@@ -2067,7 +2071,7 @@
       </c>
       <c r="H42" s="38"/>
     </row>
-    <row r="43" spans="1:8" s="39" customFormat="1">
+    <row r="43" spans="1:8" s="39" customFormat="1" ht="27">
       <c r="A43" s="39">
         <v>4010</v>
       </c>
@@ -2307,7 +2311,7 @@
       </c>
       <c r="H52" s="33"/>
     </row>
-    <row r="53" spans="1:8" s="34" customFormat="1">
+    <row r="53" spans="1:8" s="34" customFormat="1" ht="27">
       <c r="A53" s="34">
         <v>5010</v>
       </c>
@@ -2547,7 +2551,7 @@
       </c>
       <c r="H62" s="38"/>
     </row>
-    <row r="63" spans="1:8" s="39" customFormat="1">
+    <row r="63" spans="1:8" s="39" customFormat="1" ht="27">
       <c r="A63" s="39">
         <v>6010</v>
       </c>
